--- a/rtss-pre1917/src/main/resources/inner-migration/inner-migration.xlsx
+++ b/rtss-pre1917/src/main/resources/inner-migration/inner-migration.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\inner-migration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E74EDB-8B5D-41D4-9CE9-222B5A7AEAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E9F13E-A4C1-4783-8D25-0BAAAA1857C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="82230" yWindow="300" windowWidth="31155" windowHeight="22995" activeTab="3" xr2:uid="{27B0BCBD-45BA-4A2C-A6C0-E9ECF67712F3}"/>
+    <workbookView xWindow="85050" yWindow="5595" windowWidth="26730" windowHeight="13095" activeTab="4" xr2:uid="{27B0BCBD-45BA-4A2C-A6C0-E9ECF67712F3}"/>
   </bookViews>
   <sheets>
     <sheet name="note" sheetId="2" r:id="rId1"/>
     <sheet name="исход" sheetId="3" r:id="rId2"/>
     <sheet name="направления" sheetId="4" r:id="rId3"/>
     <sheet name="сальдо" sheetId="5" r:id="rId4"/>
+    <sheet name="1911-1915" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="115">
   <si>
     <t>Сведения о переселенцах внутри России</t>
   </si>
@@ -390,6 +391,18 @@
   </si>
   <si>
     <t>Сибирь + Европейская Россия</t>
+  </si>
+  <si>
+    <t>год</t>
+  </si>
+  <si>
+    <t>вес</t>
+  </si>
+  <si>
+    <t>доля</t>
+  </si>
+  <si>
+    <t>сальдо</t>
   </si>
 </sst>
 </file>
@@ -468,9 +481,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -484,9 +494,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -506,6 +513,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -885,119 +898,119 @@
   <cols>
     <col min="1" max="1" width="28.734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.05078125" customWidth="1"/>
-    <col min="3" max="3" width="10.05078125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="10.05078125" style="7" customWidth="1"/>
     <col min="4" max="5" width="8.62890625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.15625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.15625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="6.15625" style="7" customWidth="1"/>
     <col min="8" max="8" width="8.62890625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.89453125" customWidth="1"/>
     <col min="10" max="10" width="5.15625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.15625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="5.15625" style="7" customWidth="1"/>
     <col min="12" max="12" width="16.1015625" customWidth="1"/>
-    <col min="15" max="15" width="8.83984375" style="8"/>
-    <col min="19" max="19" width="8.83984375" style="8"/>
-    <col min="23" max="23" width="8.83984375" style="8"/>
+    <col min="15" max="15" width="8.83984375" style="7"/>
+    <col min="19" max="19" width="8.83984375" style="7"/>
+    <col min="23" max="23" width="8.83984375" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="14" t="s">
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="14" t="s">
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="14" t="s">
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="T1" s="14" t="s">
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="T1" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="X1" s="14" t="s">
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="X1" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
     </row>
     <row r="2" spans="1:26" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="15" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="15" t="s">
+      <c r="G2" s="11"/>
+      <c r="H2" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="15" t="s">
+      <c r="K2" s="11"/>
+      <c r="L2" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="O2" s="12"/>
-      <c r="P2" s="15" t="s">
+      <c r="O2" s="11"/>
+      <c r="P2" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="Q2" s="15" t="s">
+      <c r="Q2" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="R2" s="15" t="s">
+      <c r="R2" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="T2" s="15" t="s">
+      <c r="T2" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="U2" s="15" t="s">
+      <c r="U2" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="V2" s="15" t="s">
+      <c r="V2" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="W2" s="10"/>
-      <c r="X2" s="15" t="s">
+      <c r="W2" s="9"/>
+      <c r="X2" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="Y2" s="15" t="s">
+      <c r="Y2" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="Z2" s="15" t="s">
+      <c r="Z2" s="13" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1008,7 +1021,7 @@
       <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="9"/>
       <c r="D3" s="2">
         <v>1757</v>
       </c>
@@ -1039,7 +1052,7 @@
         <f t="shared" ref="N3:N66" si="1">$B3*F3</f>
         <v>10</v>
       </c>
-      <c r="O3" s="13"/>
+      <c r="O3" s="12"/>
       <c r="P3" s="2">
         <f t="shared" ref="P3:P66" si="2">$B3*H3</f>
         <v>1003</v>
@@ -1084,7 +1097,7 @@
       <c r="B4" s="4">
         <v>0</v>
       </c>
-      <c r="C4" s="10"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="2">
         <v>47824</v>
       </c>
@@ -1115,7 +1128,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O4" s="13"/>
+      <c r="O4" s="12"/>
       <c r="P4" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1160,7 +1173,7 @@
       <c r="B5" s="4">
         <v>0</v>
       </c>
-      <c r="C5" s="10"/>
+      <c r="C5" s="9"/>
       <c r="D5" s="2">
         <v>42667</v>
       </c>
@@ -1191,7 +1204,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O5" s="13"/>
+      <c r="O5" s="12"/>
       <c r="P5" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1236,7 +1249,7 @@
       <c r="B6" s="4">
         <v>0</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="9"/>
       <c r="D6" s="2">
         <v>160611</v>
       </c>
@@ -1267,7 +1280,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O6" s="13"/>
+      <c r="O6" s="12"/>
       <c r="P6" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1312,7 +1325,7 @@
       <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="9"/>
       <c r="D7" s="2">
         <v>1700</v>
       </c>
@@ -1343,7 +1356,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="O7" s="13"/>
+      <c r="O7" s="12"/>
       <c r="P7" s="2">
         <f t="shared" si="2"/>
         <v>841</v>
@@ -1388,7 +1401,7 @@
       <c r="B8" s="4">
         <v>1</v>
       </c>
-      <c r="C8" s="10"/>
+      <c r="C8" s="9"/>
       <c r="D8" s="2">
         <v>16974</v>
       </c>
@@ -1419,7 +1432,7 @@
         <f t="shared" si="1"/>
         <v>203</v>
       </c>
-      <c r="O8" s="13"/>
+      <c r="O8" s="12"/>
       <c r="P8" s="2">
         <f t="shared" si="2"/>
         <v>2743</v>
@@ -1464,7 +1477,7 @@
       <c r="B9" s="4">
         <v>0</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" s="9"/>
       <c r="D9" s="2">
         <v>59422</v>
       </c>
@@ -1495,7 +1508,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O9" s="13"/>
+      <c r="O9" s="12"/>
       <c r="P9" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1540,7 +1553,7 @@
       <c r="B10" s="4">
         <v>1</v>
       </c>
-      <c r="C10" s="10"/>
+      <c r="C10" s="9"/>
       <c r="D10" s="2">
         <v>212332</v>
       </c>
@@ -1571,7 +1584,7 @@
         <f t="shared" si="1"/>
         <v>577</v>
       </c>
-      <c r="O10" s="13"/>
+      <c r="O10" s="12"/>
       <c r="P10" s="2">
         <f t="shared" si="2"/>
         <v>59901</v>
@@ -1616,7 +1629,7 @@
       <c r="B11" s="4">
         <v>1</v>
       </c>
-      <c r="C11" s="10"/>
+      <c r="C11" s="9"/>
       <c r="D11" s="2">
         <v>94489</v>
       </c>
@@ -1647,7 +1660,7 @@
         <f t="shared" si="1"/>
         <v>449</v>
       </c>
-      <c r="O11" s="13"/>
+      <c r="O11" s="12"/>
       <c r="P11" s="2">
         <f t="shared" si="2"/>
         <v>25182</v>
@@ -1692,7 +1705,7 @@
       <c r="B12" s="4">
         <v>0</v>
       </c>
-      <c r="C12" s="10"/>
+      <c r="C12" s="9"/>
       <c r="D12" s="2">
         <v>30721</v>
       </c>
@@ -1723,7 +1736,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O12" s="13"/>
+      <c r="O12" s="12"/>
       <c r="P12" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1768,7 +1781,7 @@
       <c r="B13" s="4">
         <v>1</v>
       </c>
-      <c r="C13" s="10"/>
+      <c r="C13" s="9"/>
       <c r="D13" s="2">
         <v>45685</v>
       </c>
@@ -1799,7 +1812,7 @@
         <f t="shared" si="1"/>
         <v>185</v>
       </c>
-      <c r="O13" s="13"/>
+      <c r="O13" s="12"/>
       <c r="P13" s="2">
         <f t="shared" si="2"/>
         <v>12102</v>
@@ -1844,7 +1857,7 @@
       <c r="B14" s="4">
         <v>0</v>
       </c>
-      <c r="C14" s="10"/>
+      <c r="C14" s="9"/>
       <c r="D14" s="2">
         <v>176862</v>
       </c>
@@ -1854,7 +1867,7 @@
       <c r="F14" s="2">
         <v>1543</v>
       </c>
-      <c r="G14" s="13"/>
+      <c r="G14" s="12"/>
       <c r="H14" s="2">
         <v>40177</v>
       </c>
@@ -1876,7 +1889,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O14" s="13"/>
+      <c r="O14" s="12"/>
       <c r="P14" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1921,7 +1934,7 @@
       <c r="B15" s="4">
         <v>1</v>
       </c>
-      <c r="C15" s="10"/>
+      <c r="C15" s="9"/>
       <c r="D15" s="2">
         <v>26815</v>
       </c>
@@ -1952,7 +1965,7 @@
         <f t="shared" si="1"/>
         <v>335</v>
       </c>
-      <c r="O15" s="13"/>
+      <c r="O15" s="12"/>
       <c r="P15" s="2">
         <f t="shared" si="2"/>
         <v>7597</v>
@@ -1997,7 +2010,7 @@
       <c r="B16" s="4">
         <v>1</v>
       </c>
-      <c r="C16" s="10"/>
+      <c r="C16" s="9"/>
       <c r="D16" s="2">
         <v>30926</v>
       </c>
@@ -2028,7 +2041,7 @@
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="O16" s="13"/>
+      <c r="O16" s="12"/>
       <c r="P16" s="2">
         <f t="shared" si="2"/>
         <v>5257</v>
@@ -2073,7 +2086,7 @@
       <c r="B17" s="4">
         <v>0</v>
       </c>
-      <c r="C17" s="10"/>
+      <c r="C17" s="9"/>
       <c r="D17" s="2">
         <v>204627</v>
       </c>
@@ -2104,7 +2117,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O17" s="13"/>
+      <c r="O17" s="12"/>
       <c r="P17" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2149,7 +2162,7 @@
       <c r="B18" s="4">
         <v>0</v>
       </c>
-      <c r="C18" s="10"/>
+      <c r="C18" s="9"/>
       <c r="D18" s="2">
         <v>3938</v>
       </c>
@@ -2180,7 +2193,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O18" s="13"/>
+      <c r="O18" s="12"/>
       <c r="P18" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2225,7 +2238,7 @@
       <c r="B19" s="4">
         <v>1</v>
       </c>
-      <c r="C19" s="10"/>
+      <c r="C19" s="9"/>
       <c r="D19" s="2">
         <v>20538</v>
       </c>
@@ -2256,7 +2269,7 @@
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="O19" s="13"/>
+      <c r="O19" s="12"/>
       <c r="P19" s="2">
         <f t="shared" si="2"/>
         <v>6013</v>
@@ -2301,7 +2314,7 @@
       <c r="B20" s="4">
         <v>0</v>
       </c>
-      <c r="C20" s="10"/>
+      <c r="C20" s="9"/>
       <c r="D20" s="2">
         <v>4147</v>
       </c>
@@ -2332,7 +2345,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O20" s="13"/>
+      <c r="O20" s="12"/>
       <c r="P20" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2377,7 +2390,7 @@
       <c r="B21" s="4">
         <v>1</v>
       </c>
-      <c r="C21" s="10"/>
+      <c r="C21" s="9"/>
       <c r="D21" s="2">
         <v>253491</v>
       </c>
@@ -2408,7 +2421,7 @@
         <f t="shared" si="1"/>
         <v>165</v>
       </c>
-      <c r="O21" s="13"/>
+      <c r="O21" s="12"/>
       <c r="P21" s="2">
         <f t="shared" si="2"/>
         <v>54094</v>
@@ -2453,7 +2466,7 @@
       <c r="B22" s="4">
         <v>0</v>
       </c>
-      <c r="C22" s="10"/>
+      <c r="C22" s="9"/>
       <c r="D22" s="2">
         <v>16775</v>
       </c>
@@ -2484,7 +2497,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O22" s="13"/>
+      <c r="O22" s="12"/>
       <c r="P22" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2529,7 +2542,7 @@
       <c r="B23" s="4">
         <v>0</v>
       </c>
-      <c r="C23" s="10"/>
+      <c r="C23" s="9"/>
       <c r="D23" s="2">
         <v>99757</v>
       </c>
@@ -2560,7 +2573,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O23" s="13"/>
+      <c r="O23" s="12"/>
       <c r="P23" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2605,7 +2618,7 @@
       <c r="B24" s="4">
         <v>0</v>
       </c>
-      <c r="C24" s="10"/>
+      <c r="C24" s="9"/>
       <c r="D24" s="2">
         <v>233961</v>
       </c>
@@ -2636,7 +2649,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O24" s="13"/>
+      <c r="O24" s="12"/>
       <c r="P24" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2681,7 +2694,7 @@
       <c r="B25" s="4">
         <v>1</v>
       </c>
-      <c r="C25" s="10"/>
+      <c r="C25" s="9"/>
       <c r="D25">
         <v>518</v>
       </c>
@@ -2712,7 +2725,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O25" s="13"/>
+      <c r="O25" s="12"/>
       <c r="P25" s="2">
         <f t="shared" si="2"/>
         <v>146</v>
@@ -2757,7 +2770,7 @@
       <c r="B26" s="4">
         <v>1</v>
       </c>
-      <c r="C26" s="10"/>
+      <c r="C26" s="9"/>
       <c r="D26" s="2">
         <v>14989</v>
       </c>
@@ -2788,7 +2801,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="O26" s="13"/>
+      <c r="O26" s="12"/>
       <c r="P26" s="2">
         <f t="shared" si="2"/>
         <v>5008</v>
@@ -2833,7 +2846,7 @@
       <c r="B27" s="4">
         <v>1</v>
       </c>
-      <c r="C27" s="10"/>
+      <c r="C27" s="9"/>
       <c r="D27" s="2">
         <v>3908</v>
       </c>
@@ -2864,7 +2877,7 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="O27" s="13"/>
+      <c r="O27" s="12"/>
       <c r="P27" s="2">
         <f t="shared" si="2"/>
         <v>967</v>
@@ -2909,7 +2922,7 @@
       <c r="B28" s="4">
         <v>1</v>
       </c>
-      <c r="C28" s="10"/>
+      <c r="C28" s="9"/>
       <c r="D28" s="2">
         <v>17725</v>
       </c>
@@ -2940,7 +2953,7 @@
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="O28" s="13"/>
+      <c r="O28" s="12"/>
       <c r="P28" s="2">
         <f t="shared" si="2"/>
         <v>4364</v>
@@ -2985,7 +2998,7 @@
       <c r="B29" s="4">
         <v>1</v>
       </c>
-      <c r="C29" s="10"/>
+      <c r="C29" s="9"/>
       <c r="D29" s="2">
         <v>162055</v>
       </c>
@@ -3016,7 +3029,7 @@
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="O29" s="13"/>
+      <c r="O29" s="12"/>
       <c r="P29" s="2">
         <f t="shared" si="2"/>
         <v>38062</v>
@@ -3061,7 +3074,7 @@
       <c r="B30" s="4">
         <v>1</v>
       </c>
-      <c r="C30" s="10"/>
+      <c r="C30" s="9"/>
       <c r="D30" s="2">
         <v>77482</v>
       </c>
@@ -3092,7 +3105,7 @@
         <f t="shared" si="1"/>
         <v>376</v>
       </c>
-      <c r="O30" s="13"/>
+      <c r="O30" s="12"/>
       <c r="P30" s="2">
         <f t="shared" si="2"/>
         <v>23006</v>
@@ -3137,7 +3150,7 @@
       <c r="B31" s="4">
         <v>1</v>
       </c>
-      <c r="C31" s="10"/>
+      <c r="C31" s="9"/>
       <c r="D31" s="2">
         <v>38410</v>
       </c>
@@ -3168,7 +3181,7 @@
         <f t="shared" si="1"/>
         <v>188</v>
       </c>
-      <c r="O31" s="13"/>
+      <c r="O31" s="12"/>
       <c r="P31" s="2">
         <f t="shared" si="2"/>
         <v>8577</v>
@@ -3213,7 +3226,7 @@
       <c r="B32" s="4">
         <v>1</v>
       </c>
-      <c r="C32" s="10"/>
+      <c r="C32" s="9"/>
       <c r="D32" s="2">
         <v>3553</v>
       </c>
@@ -3244,7 +3257,7 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="O32" s="13"/>
+      <c r="O32" s="12"/>
       <c r="P32" s="2">
         <f t="shared" si="2"/>
         <v>644</v>
@@ -3289,7 +3302,7 @@
       <c r="B33" s="4">
         <v>0</v>
       </c>
-      <c r="C33" s="10"/>
+      <c r="C33" s="9"/>
       <c r="D33" s="2">
         <v>76452</v>
       </c>
@@ -3320,7 +3333,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O33" s="13"/>
+      <c r="O33" s="12"/>
       <c r="P33" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3365,7 +3378,7 @@
       <c r="B34" s="4">
         <v>0</v>
       </c>
-      <c r="C34" s="10"/>
+      <c r="C34" s="9"/>
       <c r="D34" s="2">
         <v>367635</v>
       </c>
@@ -3396,7 +3409,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O34" s="13"/>
+      <c r="O34" s="12"/>
       <c r="P34" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3441,7 +3454,7 @@
       <c r="B35" s="4">
         <v>1</v>
       </c>
-      <c r="C35" s="10"/>
+      <c r="C35" s="9"/>
       <c r="D35" s="2">
         <v>24273</v>
       </c>
@@ -3472,7 +3485,7 @@
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="O35" s="13"/>
+      <c r="O35" s="12"/>
       <c r="P35" s="2">
         <f t="shared" si="2"/>
         <v>4106</v>
@@ -3517,7 +3530,7 @@
       <c r="B36" s="4">
         <v>1</v>
       </c>
-      <c r="C36" s="10"/>
+      <c r="C36" s="9"/>
       <c r="D36" s="2">
         <v>48700</v>
       </c>
@@ -3548,7 +3561,7 @@
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="O36" s="13"/>
+      <c r="O36" s="12"/>
       <c r="P36" s="2">
         <f t="shared" si="2"/>
         <v>11446</v>
@@ -3593,7 +3606,7 @@
       <c r="B37" s="4">
         <v>1</v>
       </c>
-      <c r="C37" s="10"/>
+      <c r="C37" s="9"/>
       <c r="D37" s="2">
         <v>147019</v>
       </c>
@@ -3624,7 +3637,7 @@
         <f t="shared" si="1"/>
         <v>270</v>
       </c>
-      <c r="O37" s="13"/>
+      <c r="O37" s="12"/>
       <c r="P37" s="2">
         <f t="shared" si="2"/>
         <v>49201</v>
@@ -3669,7 +3682,7 @@
       <c r="B38" s="4">
         <v>1</v>
       </c>
-      <c r="C38" s="10"/>
+      <c r="C38" s="9"/>
       <c r="D38" s="2">
         <v>89973</v>
       </c>
@@ -3700,7 +3713,7 @@
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
-      <c r="O38" s="13"/>
+      <c r="O38" s="12"/>
       <c r="P38" s="2">
         <f t="shared" si="2"/>
         <v>32867</v>
@@ -3745,7 +3758,7 @@
       <c r="B39" s="4">
         <v>1</v>
       </c>
-      <c r="C39" s="10"/>
+      <c r="C39" s="9"/>
       <c r="D39" s="2">
         <v>45313</v>
       </c>
@@ -3776,7 +3789,7 @@
         <f t="shared" si="1"/>
         <v>140</v>
       </c>
-      <c r="O39" s="13"/>
+      <c r="O39" s="12"/>
       <c r="P39" s="2">
         <f t="shared" si="2"/>
         <v>15694</v>
@@ -3821,7 +3834,7 @@
       <c r="B40" s="4">
         <v>1</v>
       </c>
-      <c r="C40" s="10"/>
+      <c r="C40" s="9"/>
       <c r="D40" s="2">
         <v>68938</v>
       </c>
@@ -3852,7 +3865,7 @@
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
-      <c r="O40" s="13"/>
+      <c r="O40" s="12"/>
       <c r="P40" s="2">
         <f t="shared" si="2"/>
         <v>16995</v>
@@ -3897,7 +3910,7 @@
       <c r="B41" s="4">
         <v>0</v>
       </c>
-      <c r="C41" s="10"/>
+      <c r="C41" s="9"/>
       <c r="D41" s="2">
         <v>103859</v>
       </c>
@@ -3928,7 +3941,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O41" s="13"/>
+      <c r="O41" s="12"/>
       <c r="P41" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3973,7 +3986,7 @@
       <c r="B42" s="4">
         <v>1</v>
       </c>
-      <c r="C42" s="10"/>
+      <c r="C42" s="9"/>
       <c r="D42" s="2">
         <v>164487</v>
       </c>
@@ -4004,7 +4017,7 @@
         <f t="shared" si="1"/>
         <v>376</v>
       </c>
-      <c r="O42" s="13"/>
+      <c r="O42" s="12"/>
       <c r="P42" s="2">
         <f t="shared" si="2"/>
         <v>52969</v>
@@ -4049,7 +4062,7 @@
       <c r="B43" s="4">
         <v>1</v>
       </c>
-      <c r="C43" s="10"/>
+      <c r="C43" s="9"/>
       <c r="D43" s="2">
         <v>4195</v>
       </c>
@@ -4080,7 +4093,7 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="O43" s="13"/>
+      <c r="O43" s="12"/>
       <c r="P43" s="2">
         <f t="shared" si="2"/>
         <v>1008</v>
@@ -4125,7 +4138,7 @@
       <c r="B44" s="4">
         <v>1</v>
       </c>
-      <c r="C44" s="10"/>
+      <c r="C44" s="9"/>
       <c r="D44" s="2">
         <v>37883</v>
       </c>
@@ -4156,7 +4169,7 @@
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="O44" s="13"/>
+      <c r="O44" s="12"/>
       <c r="P44" s="2">
         <f t="shared" si="2"/>
         <v>9784</v>
@@ -4201,7 +4214,7 @@
       <c r="B45" s="4">
         <v>1</v>
       </c>
-      <c r="C45" s="10"/>
+      <c r="C45" s="9"/>
       <c r="D45" s="2">
         <v>31999</v>
       </c>
@@ -4232,7 +4245,7 @@
         <f t="shared" si="1"/>
         <v>270</v>
       </c>
-      <c r="O45" s="13"/>
+      <c r="O45" s="12"/>
       <c r="P45" s="2">
         <f t="shared" si="2"/>
         <v>9141</v>
@@ -4277,7 +4290,7 @@
       <c r="B46" s="4">
         <v>0</v>
       </c>
-      <c r="C46" s="10"/>
+      <c r="C46" s="9"/>
       <c r="D46" s="2">
         <v>195752</v>
       </c>
@@ -4308,7 +4321,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O46" s="13"/>
+      <c r="O46" s="12"/>
       <c r="P46" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4353,7 +4366,7 @@
       <c r="B47" s="4">
         <v>0</v>
       </c>
-      <c r="C47" s="10"/>
+      <c r="C47" s="9"/>
       <c r="D47" s="2">
         <v>119713</v>
       </c>
@@ -4384,7 +4397,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O47" s="13"/>
+      <c r="O47" s="12"/>
       <c r="P47" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4429,7 +4442,7 @@
       <c r="B48" s="4">
         <v>0</v>
       </c>
-      <c r="C48" s="10"/>
+      <c r="C48" s="9"/>
       <c r="D48" s="4" t="s">
         <v>77</v>
       </c>
@@ -4448,7 +4461,7 @@
       <c r="J48" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="K48" s="10"/>
+      <c r="K48" s="9"/>
       <c r="L48" s="2" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
@@ -4461,7 +4474,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O48" s="13"/>
+      <c r="O48" s="12"/>
       <c r="P48" s="2" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -4506,7 +4519,7 @@
       <c r="B49" s="4">
         <v>0</v>
       </c>
-      <c r="C49" s="10"/>
+      <c r="C49" s="9"/>
       <c r="D49" s="2">
         <v>296462</v>
       </c>
@@ -4537,7 +4550,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O49" s="13"/>
+      <c r="O49" s="12"/>
       <c r="P49" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4582,7 +4595,7 @@
       <c r="B50" s="4">
         <v>0</v>
       </c>
-      <c r="C50" s="10"/>
+      <c r="C50" s="9"/>
       <c r="D50" s="2">
         <v>4389</v>
       </c>
@@ -4592,7 +4605,7 @@
       <c r="F50" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G50" s="10"/>
+      <c r="G50" s="9"/>
       <c r="H50">
         <v>458</v>
       </c>
@@ -4614,7 +4627,7 @@
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O50" s="13"/>
+      <c r="O50" s="12"/>
       <c r="P50" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4659,7 +4672,7 @@
       <c r="B51" s="4">
         <v>0</v>
       </c>
-      <c r="C51" s="10"/>
+      <c r="C51" s="9"/>
       <c r="D51" s="2">
         <v>7171</v>
       </c>
@@ -4669,7 +4682,7 @@
       <c r="F51" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G51" s="10"/>
+      <c r="G51" s="9"/>
       <c r="H51" s="2">
         <v>2188</v>
       </c>
@@ -4691,7 +4704,7 @@
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O51" s="13"/>
+      <c r="O51" s="12"/>
       <c r="P51" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4736,7 +4749,7 @@
       <c r="B52" s="4">
         <v>0</v>
       </c>
-      <c r="C52" s="10"/>
+      <c r="C52" s="9"/>
       <c r="D52" s="2">
         <v>4494</v>
       </c>
@@ -4746,7 +4759,7 @@
       <c r="F52" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G52" s="10"/>
+      <c r="G52" s="9"/>
       <c r="H52" s="2">
         <v>1141</v>
       </c>
@@ -4768,7 +4781,7 @@
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O52" s="13"/>
+      <c r="O52" s="12"/>
       <c r="P52" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4813,7 +4826,7 @@
       <c r="B53" s="4">
         <v>0</v>
       </c>
-      <c r="C53" s="10"/>
+      <c r="C53" s="9"/>
       <c r="D53">
         <v>67</v>
       </c>
@@ -4823,7 +4836,7 @@
       <c r="F53" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G53" s="10"/>
+      <c r="G53" s="9"/>
       <c r="H53">
         <v>19</v>
       </c>
@@ -4833,7 +4846,7 @@
       <c r="J53" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="K53" s="10"/>
+      <c r="K53" s="9"/>
       <c r="L53" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -4846,7 +4859,7 @@
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O53" s="13"/>
+      <c r="O53" s="12"/>
       <c r="P53" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4891,7 +4904,7 @@
       <c r="B54" s="4">
         <v>0</v>
       </c>
-      <c r="C54" s="10"/>
+      <c r="C54" s="9"/>
       <c r="D54" s="4" t="s">
         <v>77</v>
       </c>
@@ -4901,7 +4914,7 @@
       <c r="F54" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G54" s="10"/>
+      <c r="G54" s="9"/>
       <c r="H54" s="4" t="s">
         <v>77</v>
       </c>
@@ -4923,7 +4936,7 @@
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O54" s="13"/>
+      <c r="O54" s="12"/>
       <c r="P54" s="2" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -4968,7 +4981,7 @@
       <c r="B55" s="4">
         <v>1</v>
       </c>
-      <c r="C55" s="10"/>
+      <c r="C55" s="9"/>
       <c r="D55">
         <v>52</v>
       </c>
@@ -4978,7 +4991,7 @@
       <c r="F55" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G55" s="10"/>
+      <c r="G55" s="9"/>
       <c r="H55">
         <v>33</v>
       </c>
@@ -4988,7 +5001,7 @@
       <c r="J55" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="K55" s="10"/>
+      <c r="K55" s="9"/>
       <c r="L55" s="2">
         <f t="shared" si="9"/>
         <v>52</v>
@@ -5001,7 +5014,7 @@
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O55" s="13"/>
+      <c r="O55" s="12"/>
       <c r="P55" s="2">
         <f t="shared" si="2"/>
         <v>33</v>
@@ -5046,7 +5059,7 @@
       <c r="B56" s="4">
         <v>0</v>
       </c>
-      <c r="C56" s="10"/>
+      <c r="C56" s="9"/>
       <c r="D56">
         <v>352</v>
       </c>
@@ -5077,7 +5090,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O56" s="13"/>
+      <c r="O56" s="12"/>
       <c r="P56" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5122,7 +5135,7 @@
       <c r="B57" s="4">
         <v>0</v>
       </c>
-      <c r="C57" s="10"/>
+      <c r="C57" s="9"/>
       <c r="D57">
         <v>841</v>
       </c>
@@ -5132,7 +5145,7 @@
       <c r="F57" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G57" s="10"/>
+      <c r="G57" s="9"/>
       <c r="H57">
         <v>256</v>
       </c>
@@ -5142,7 +5155,7 @@
       <c r="J57" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="K57" s="10"/>
+      <c r="K57" s="9"/>
       <c r="L57" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -5155,7 +5168,7 @@
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O57" s="13"/>
+      <c r="O57" s="12"/>
       <c r="P57" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5200,7 +5213,7 @@
       <c r="B58" s="4">
         <v>1</v>
       </c>
-      <c r="C58" s="10"/>
+      <c r="C58" s="9"/>
       <c r="D58" s="2">
         <v>10836</v>
       </c>
@@ -5231,7 +5244,7 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="O58" s="13"/>
+      <c r="O58" s="12"/>
       <c r="P58" s="2">
         <f t="shared" si="2"/>
         <v>2825</v>
@@ -5276,7 +5289,7 @@
       <c r="B59" s="4">
         <v>0</v>
       </c>
-      <c r="C59" s="10"/>
+      <c r="C59" s="9"/>
       <c r="D59">
         <v>85</v>
       </c>
@@ -5286,7 +5299,7 @@
       <c r="F59" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G59" s="10"/>
+      <c r="G59" s="9"/>
       <c r="H59">
         <v>293</v>
       </c>
@@ -5296,7 +5309,7 @@
       <c r="J59" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="K59" s="10"/>
+      <c r="K59" s="9"/>
       <c r="L59" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -5309,7 +5322,7 @@
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O59" s="13"/>
+      <c r="O59" s="12"/>
       <c r="P59" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5354,7 +5367,7 @@
       <c r="B60" s="4">
         <v>1</v>
       </c>
-      <c r="C60" s="10"/>
+      <c r="C60" s="9"/>
       <c r="D60" s="2">
         <v>17963</v>
       </c>
@@ -5385,7 +5398,7 @@
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="O60" s="13"/>
+      <c r="O60" s="12"/>
       <c r="P60" s="2">
         <f t="shared" si="2"/>
         <v>5106</v>
@@ -5430,7 +5443,7 @@
       <c r="B61" s="4">
         <v>1</v>
       </c>
-      <c r="C61" s="10"/>
+      <c r="C61" s="9"/>
       <c r="D61" s="2">
         <v>2188</v>
       </c>
@@ -5461,7 +5474,7 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="O61" s="13"/>
+      <c r="O61" s="12"/>
       <c r="P61" s="2">
         <f t="shared" si="2"/>
         <v>746</v>
@@ -5506,7 +5519,7 @@
       <c r="B62" s="4">
         <v>0</v>
       </c>
-      <c r="C62" s="10"/>
+      <c r="C62" s="9"/>
       <c r="D62">
         <v>43</v>
       </c>
@@ -5516,7 +5529,7 @@
       <c r="F62" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G62" s="10"/>
+      <c r="G62" s="9"/>
       <c r="H62">
         <v>4</v>
       </c>
@@ -5538,7 +5551,7 @@
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O62" s="13"/>
+      <c r="O62" s="12"/>
       <c r="P62" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5583,7 +5596,7 @@
       <c r="B63" s="4">
         <v>0</v>
       </c>
-      <c r="C63" s="10"/>
+      <c r="C63" s="9"/>
       <c r="D63" s="4" t="s">
         <v>77</v>
       </c>
@@ -5593,7 +5606,7 @@
       <c r="F63" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G63" s="10"/>
+      <c r="G63" s="9"/>
       <c r="H63" s="4" t="s">
         <v>77</v>
       </c>
@@ -5603,7 +5616,7 @@
       <c r="J63" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="K63" s="10"/>
+      <c r="K63" s="9"/>
       <c r="L63" s="2" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
@@ -5616,7 +5629,7 @@
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O63" s="13"/>
+      <c r="O63" s="12"/>
       <c r="P63" s="2" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -5661,7 +5674,7 @@
       <c r="B64" s="4">
         <v>1</v>
       </c>
-      <c r="C64" s="10"/>
+      <c r="C64" s="9"/>
       <c r="D64">
         <v>594</v>
       </c>
@@ -5671,7 +5684,7 @@
       <c r="F64" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G64" s="10"/>
+      <c r="G64" s="9"/>
       <c r="H64">
         <v>103</v>
       </c>
@@ -5681,7 +5694,7 @@
       <c r="J64" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="K64" s="10"/>
+      <c r="K64" s="9"/>
       <c r="L64" s="2">
         <f t="shared" si="9"/>
         <v>594</v>
@@ -5694,7 +5707,7 @@
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O64" s="13"/>
+      <c r="O64" s="12"/>
       <c r="P64" s="2">
         <f t="shared" si="2"/>
         <v>103</v>
@@ -5739,7 +5752,7 @@
       <c r="B65" s="4">
         <v>0</v>
       </c>
-      <c r="C65" s="10"/>
+      <c r="C65" s="9"/>
       <c r="D65">
         <v>26</v>
       </c>
@@ -5749,7 +5762,7 @@
       <c r="F65" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G65" s="10"/>
+      <c r="G65" s="9"/>
       <c r="H65">
         <v>18</v>
       </c>
@@ -5759,7 +5772,7 @@
       <c r="J65" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="K65" s="10"/>
+      <c r="K65" s="9"/>
       <c r="L65" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -5772,7 +5785,7 @@
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O65" s="13"/>
+      <c r="O65" s="12"/>
       <c r="P65" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5817,7 +5830,7 @@
       <c r="B66" s="4">
         <v>0</v>
       </c>
-      <c r="C66" s="10"/>
+      <c r="C66" s="9"/>
       <c r="D66">
         <v>67</v>
       </c>
@@ -5827,7 +5840,7 @@
       <c r="F66" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G66" s="10"/>
+      <c r="G66" s="9"/>
       <c r="H66">
         <v>19</v>
       </c>
@@ -5849,7 +5862,7 @@
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O66" s="13"/>
+      <c r="O66" s="12"/>
       <c r="P66" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5894,7 +5907,7 @@
       <c r="B67" s="4">
         <v>0</v>
       </c>
-      <c r="C67" s="10"/>
+      <c r="C67" s="9"/>
       <c r="D67" s="2">
         <v>1404</v>
       </c>
@@ -5925,7 +5938,7 @@
         <f t="shared" ref="N67:N68" si="13">$B67*F67</f>
         <v>0</v>
       </c>
-      <c r="O67" s="13"/>
+      <c r="O67" s="12"/>
       <c r="P67" s="2">
         <f t="shared" ref="P67:P68" si="14">$B67*H67</f>
         <v>0</v>
@@ -5970,7 +5983,7 @@
       <c r="B68" s="4">
         <v>0</v>
       </c>
-      <c r="C68" s="10"/>
+      <c r="C68" s="9"/>
       <c r="D68" s="2">
         <v>4464</v>
       </c>
@@ -5980,7 +5993,7 @@
       <c r="F68" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G68" s="10"/>
+      <c r="G68" s="9"/>
       <c r="H68">
         <v>611</v>
       </c>
@@ -5990,7 +6003,7 @@
       <c r="J68" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="K68" s="10"/>
+      <c r="K68" s="9"/>
       <c r="L68" s="2">
         <f t="shared" ref="L68" si="21">$B68*D68</f>
         <v>0</v>
@@ -6003,7 +6016,7 @@
         <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O68" s="13"/>
+      <c r="O68" s="12"/>
       <c r="P68" s="2">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -6043,19 +6056,19 @@
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B69" s="4"/>
-      <c r="C69" s="10"/>
+      <c r="C69" s="9"/>
       <c r="D69" s="2"/>
       <c r="F69" s="4"/>
-      <c r="G69" s="10"/>
+      <c r="G69" s="9"/>
       <c r="J69" s="4"/>
-      <c r="K69" s="10"/>
+      <c r="K69" s="9"/>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>69</v>
       </c>
       <c r="B70" s="4"/>
-      <c r="C70" s="10"/>
+      <c r="C70" s="9"/>
       <c r="D70" s="2">
         <v>3982348</v>
       </c>
@@ -6065,7 +6078,7 @@
       <c r="F70" s="2">
         <v>11201</v>
       </c>
-      <c r="G70" s="13"/>
+      <c r="G70" s="12"/>
       <c r="H70" s="2">
         <v>1022893</v>
       </c>
@@ -6075,7 +6088,7 @@
       <c r="J70" s="2">
         <v>7776</v>
       </c>
-      <c r="K70" s="13"/>
+      <c r="K70" s="12"/>
       <c r="L70" s="2">
         <f>_xlfn.AGGREGATE(9,6,L3:L68)</f>
         <v>1717760</v>
@@ -6088,7 +6101,7 @@
         <f>_xlfn.AGGREGATE(9,6,N3:N68)</f>
         <v>4480</v>
       </c>
-      <c r="O70" s="13"/>
+      <c r="O70" s="12"/>
       <c r="P70" s="2">
         <f>_xlfn.AGGREGATE(9,6,P3:P68)</f>
         <v>467531</v>
@@ -6131,33 +6144,33 @@
         <v>79</v>
       </c>
       <c r="B72" s="1"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="7">
+      <c r="C72" s="8"/>
+      <c r="D72" s="6">
         <f>SUM(D3:D68)</f>
         <v>3982348</v>
       </c>
-      <c r="E72" s="7">
+      <c r="E72" s="6">
         <f>SUM(E3:E68)</f>
         <v>1187493</v>
       </c>
-      <c r="F72" s="7">
+      <c r="F72" s="6">
         <f>SUM(F3:F68)</f>
         <v>11201</v>
       </c>
-      <c r="G72" s="13"/>
-      <c r="H72" s="7">
+      <c r="G72" s="12"/>
+      <c r="H72" s="6">
         <f>SUM(H3:H68)</f>
         <v>1022893</v>
       </c>
-      <c r="I72" s="7">
+      <c r="I72" s="6">
         <f>SUM(I3:I68)</f>
         <v>466645</v>
       </c>
-      <c r="J72" s="7">
+      <c r="J72" s="6">
         <f>SUM(J3:J68)</f>
         <v>7776</v>
       </c>
-      <c r="K72" s="13"/>
+      <c r="K72" s="12"/>
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -6166,68 +6179,68 @@
       <c r="R72" s="2"/>
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="D73" s="7">
+      <c r="D73" s="6">
         <f>D70-D72</f>
         <v>0</v>
       </c>
-      <c r="E73" s="7">
+      <c r="E73" s="6">
         <f>E70-E72</f>
         <v>0</v>
       </c>
-      <c r="F73" s="7">
+      <c r="F73" s="6">
         <f>F70-F72</f>
         <v>0</v>
       </c>
-      <c r="G73" s="13"/>
-      <c r="H73" s="7">
+      <c r="G73" s="12"/>
+      <c r="H73" s="6">
         <f>H70-H72</f>
         <v>0</v>
       </c>
-      <c r="I73" s="7">
+      <c r="I73" s="6">
         <f>I70-I72</f>
         <v>0</v>
       </c>
-      <c r="J73" s="7">
+      <c r="J73" s="6">
         <f>J70-J72</f>
         <v>0</v>
       </c>
-      <c r="K73" s="13"/>
+      <c r="K73" s="12"/>
       <c r="L73" s="2"/>
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="D75" s="7">
+      <c r="D75" s="6">
         <f>D70-L70-T70</f>
         <v>0</v>
       </c>
-      <c r="E75" s="7">
+      <c r="E75" s="6">
         <f>E70-M70-U70</f>
         <v>0</v>
       </c>
-      <c r="F75" s="7">
+      <c r="F75" s="6">
         <f>F70-N70-V70</f>
         <v>0</v>
       </c>
-      <c r="H75" s="7">
+      <c r="H75" s="6">
         <f>H70-P70-X70</f>
         <v>0</v>
       </c>
-      <c r="I75" s="7">
+      <c r="I75" s="6">
         <f>I70-Q70-Y70</f>
         <v>0</v>
       </c>
-      <c r="J75" s="7">
+      <c r="J75" s="6">
         <f>J70-R70-Z70</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="X1:Z1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="T1:V1"/>
-    <mergeCell ref="X1:Z1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6244,24 +6257,24 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="33.47265625" customWidth="1"/>
-    <col min="2" max="2" width="6.578125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="6.578125" style="7" customWidth="1"/>
     <col min="3" max="3" width="21.89453125" customWidth="1"/>
-    <col min="7" max="7" width="8.83984375" style="8"/>
+    <col min="7" max="7" width="8.83984375" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="5" t="s">
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
@@ -6309,7 +6322,7 @@
         <f t="shared" ref="F4:F5" si="0">SUM(C4:E4)</f>
         <v>3466918</v>
       </c>
-      <c r="G4" s="13"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="2">
         <v>604865</v>
       </c>
@@ -6341,7 +6354,7 @@
         <f t="shared" si="0"/>
         <v>1480370</v>
       </c>
-      <c r="G5" s="13"/>
+      <c r="G5" s="12"/>
       <c r="H5" s="2">
         <v>264300</v>
       </c>
@@ -6373,7 +6386,7 @@
         <f>SUM(C6:E6)</f>
         <v>221214</v>
       </c>
-      <c r="G6" s="13"/>
+      <c r="G6" s="12"/>
       <c r="H6" s="2">
         <v>58696</v>
       </c>
@@ -6393,7 +6406,7 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="13"/>
+      <c r="G7" s="12"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -6418,7 +6431,7 @@
         <f>SUM(F4:F6)</f>
         <v>5168502</v>
       </c>
-      <c r="G8" s="13"/>
+      <c r="G8" s="12"/>
       <c r="H8" s="2">
         <f>SUM(H4:H6)</f>
         <v>927861</v>
@@ -6477,36 +6490,36 @@
       <c r="A11" t="s">
         <v>98</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="15">
         <f>100*(C4+C6)/C8</f>
         <v>73.197288880193909</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="15">
         <f>100*(D4+D6)/D8</f>
         <v>65.398706878374711</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="15">
         <f>100*(E4+E6)/E8</f>
         <v>49.924113918400145</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="15">
         <f>100*(F4+F6)/F8</f>
         <v>71.357851849530093</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="17">
+      <c r="G11" s="16"/>
+      <c r="H11" s="15">
         <f>100*(H4+H6)/H8</f>
         <v>71.515129960198777</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="15">
         <f>100*(I4+I6)/I8</f>
         <v>62.149764968361552</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J11" s="15">
         <f>100*(J4+J6)/J8</f>
         <v>72.848874598070736</v>
       </c>
-      <c r="K11" s="17">
+      <c r="K11" s="15">
         <f>100*(K4+K6)/K8</f>
         <v>68.487227109172224</v>
       </c>
@@ -6524,7 +6537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A507872-487D-4341-B10A-80CCECB6B21E}">
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
@@ -6532,80 +6545,80 @@
   <cols>
     <col min="1" max="1" width="9.26171875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5234375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="12.5234375" style="7" customWidth="1"/>
     <col min="4" max="4" width="16.3671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.89453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.47265625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="13.47265625" style="7" customWidth="1"/>
     <col min="8" max="8" width="23.20703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.15625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.3671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.5234375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.47265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.83984375" style="8"/>
+    <col min="13" max="13" width="8.83984375" style="7"/>
     <col min="14" max="14" width="13.47265625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6.15625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:16" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="20" t="s">
+      <c r="C1" s="19"/>
+      <c r="D1" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="20" t="s">
+      <c r="G1" s="19"/>
+      <c r="H1" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="M1" s="22"/>
-      <c r="N1" s="20" t="s">
+      <c r="M1" s="20"/>
+      <c r="N1" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="19"/>
+      <c r="P1" s="17"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
@@ -6618,7 +6631,7 @@
         <f>исход!T70</f>
         <v>2264588</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="21">
         <f>направления!C11</f>
         <v>73.197288880193909</v>
       </c>
@@ -6638,7 +6651,7 @@
         <f>исход!X70</f>
         <v>555362</v>
       </c>
-      <c r="K3" s="23">
+      <c r="K3" s="21">
         <f>100*J3/I3</f>
         <v>54.29326430037159</v>
       </c>
@@ -6666,7 +6679,7 @@
         <f>исход!U70</f>
         <v>570932</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="21">
         <f>направления!D11</f>
         <v>65.398706878374711</v>
       </c>
@@ -6686,7 +6699,7 @@
         <f>исход!Y70</f>
         <v>234280</v>
       </c>
-      <c r="K4" s="23">
+      <c r="K4" s="21">
         <f t="shared" ref="K4:K6" si="1">100*J4/I4</f>
         <v>50.205188098018837</v>
       </c>
@@ -6714,7 +6727,7 @@
         <f>исход!V70</f>
         <v>6721</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="21">
         <f>направления!E11</f>
         <v>49.924113918400145</v>
       </c>
@@ -6734,7 +6747,7 @@
         <f>исход!Z70</f>
         <v>3743</v>
       </c>
-      <c r="K5" s="23">
+      <c r="K5" s="21">
         <f t="shared" si="1"/>
         <v>48.135288065843625</v>
       </c>
@@ -6762,7 +6775,7 @@
         <f>SUM(D3:D5)</f>
         <v>2842241</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="21">
         <f>направления!F11</f>
         <v>71.357851849530093</v>
       </c>
@@ -6782,7 +6795,7 @@
         <f>SUM(J3:J5)</f>
         <v>793385</v>
       </c>
-      <c r="K6" s="23">
+      <c r="K6" s="21">
         <f t="shared" si="1"/>
         <v>52.98721577437999</v>
       </c>
@@ -6797,6 +6810,127 @@
       <c r="O6" s="2">
         <f t="shared" si="4"/>
         <v>72657.489768512067</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A4790B-7936-407E-A955-9B53542996BA}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>1911</v>
+      </c>
+      <c r="B2" s="2">
+        <f>$B$7*F2</f>
+        <v>64830.555555555555</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <f>5*E2/$E$7</f>
+        <v>1.3888888888888888</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>1912</v>
+      </c>
+      <c r="B3" s="2">
+        <f t="shared" ref="B3:B6" si="0">$B$7*F3</f>
+        <v>64830.555555555555</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F6" si="1">5*E3/$E$7</f>
+        <v>1.3888888888888888</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>1913</v>
+      </c>
+      <c r="B4" s="2">
+        <f t="shared" si="0"/>
+        <v>64830.555555555555</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>1.3888888888888888</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>1914</v>
+      </c>
+      <c r="B5" s="2">
+        <f t="shared" si="0"/>
+        <v>38898.333333333328</v>
+      </c>
+      <c r="E5">
+        <v>0.6</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>0.83333333333333326</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>1915</v>
+      </c>
+      <c r="B6" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="2">
+        <v>46678</v>
+      </c>
+      <c r="E7">
+        <f>SUM(E2:E6)</f>
+        <v>3.6</v>
       </c>
     </row>
   </sheetData>

--- a/rtss-pre1917/src/main/resources/inner-migration/inner-migration.xlsx
+++ b/rtss-pre1917/src/main/resources/inner-migration/inner-migration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\inner-migration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E9F13E-A4C1-4783-8D25-0BAAAA1857C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79978A16-F2CE-45DF-8C88-16C9609E8FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="85050" yWindow="5595" windowWidth="26730" windowHeight="13095" activeTab="4" xr2:uid="{27B0BCBD-45BA-4A2C-A6C0-E9ECF67712F3}"/>
+    <workbookView xWindow="91770" yWindow="2190" windowWidth="22260" windowHeight="20805" activeTab="5" xr2:uid="{27B0BCBD-45BA-4A2C-A6C0-E9ECF67712F3}"/>
   </bookViews>
   <sheets>
     <sheet name="note" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="направления" sheetId="4" r:id="rId3"/>
     <sheet name="сальдо" sheetId="5" r:id="rId4"/>
     <sheet name="1911-1915" sheetId="6" r:id="rId5"/>
+    <sheet name="баланс-1" sheetId="7" r:id="rId6"/>
+    <sheet name="баланс-2" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="144">
   <si>
     <t>Сведения о переселенцах внутри России</t>
   </si>
@@ -403,6 +405,100 @@
   </si>
   <si>
     <t>сальдо</t>
+  </si>
+  <si>
+    <t>Итого</t>
+  </si>
+  <si>
+    <t>Амурская</t>
+  </si>
+  <si>
+    <t>Енисейская</t>
+  </si>
+  <si>
+    <t>Забайкальская</t>
+  </si>
+  <si>
+    <t>Иркутская</t>
+  </si>
+  <si>
+    <t>Камчатская</t>
+  </si>
+  <si>
+    <t>Приморская</t>
+  </si>
+  <si>
+    <t>Сахалинская</t>
+  </si>
+  <si>
+    <t>Тобольская</t>
+  </si>
+  <si>
+    <t>Томская</t>
+  </si>
+  <si>
+    <t>Якутская</t>
+  </si>
+  <si>
+    <t>Урянхайский край</t>
+  </si>
+  <si>
+    <t>Акмолинская</t>
+  </si>
+  <si>
+    <t>Самаркандская</t>
+  </si>
+  <si>
+    <t>Семипалатинская</t>
+  </si>
+  <si>
+    <t>Семиреченская</t>
+  </si>
+  <si>
+    <t>Тургайская</t>
+  </si>
+  <si>
+    <t>Ферганская</t>
+  </si>
+  <si>
+    <t>Туркестан</t>
+  </si>
+  <si>
+    <t>Сыр-Дарьинская</t>
+  </si>
+  <si>
+    <t>из неуказанных областей</t>
+  </si>
+  <si>
+    <t>вернувшихся с пути</t>
+  </si>
+  <si>
+    <t>прибытие
+1911-1915</t>
+  </si>
+  <si>
+    <t>убытие
+1896-1910</t>
+  </si>
+  <si>
+    <t>убытие
+1911-1915</t>
+  </si>
+  <si>
+    <t>прибытие 
+1896-1910</t>
+  </si>
+  <si>
+    <t>прибытие
+1916</t>
+  </si>
+  <si>
+    <t>убытие
+1916</t>
+  </si>
+  <si>
+    <t>прибытие
+1896-1910</t>
   </si>
 </sst>
 </file>
@@ -413,7 +509,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -428,6 +524,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="5">
@@ -468,7 +569,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -518,6 +619,31 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -839,44 +965,44 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -890,11 +1016,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E6DC86-A9DB-46AE-A327-0A951FB1A6FE}">
   <dimension ref="A1:Z75"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="T70" sqref="T70"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="28.734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.05078125" customWidth="1"/>
@@ -912,7 +1041,7 @@
     <col min="23" max="23" width="8.83984375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:26">
       <c r="D1" s="22" t="s">
         <v>74</v>
       </c>
@@ -947,7 +1076,7 @@
       <c r="Y1" s="22"/>
       <c r="Z1" s="22"/>
     </row>
-    <row r="2" spans="1:26" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:26" ht="28.8">
       <c r="A2" s="14" t="s">
         <v>72</v>
       </c>
@@ -1014,7 +1143,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:26">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1090,7 +1219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:26">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1166,7 +1295,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:26">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1242,7 +1371,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:26">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1318,7 +1447,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:26">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1394,7 +1523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:26">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1470,7 +1599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:26">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1546,7 +1675,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:26">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1622,7 +1751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:26">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1698,7 +1827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:26">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1774,7 +1903,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:26">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1850,7 +1979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:26">
       <c r="A14" t="s">
         <v>76</v>
       </c>
@@ -1927,7 +2056,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:26">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -2003,7 +2132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:26">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2079,7 +2208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:26">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -2155,7 +2284,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:26">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -2231,7 +2360,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:26">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -2307,7 +2436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:26">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -2383,7 +2512,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:26">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -2459,7 +2588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:26">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -2535,7 +2664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:26">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -2611,7 +2740,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:26">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -2687,7 +2816,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:26">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -2763,7 +2892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:26">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -2839,7 +2968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:26">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -2915,7 +3044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:26">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -2991,7 +3120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:26">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -3067,7 +3196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:26">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -3143,7 +3272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:26">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -3219,7 +3348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:26">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -3295,7 +3424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:26">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -3371,7 +3500,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:26">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -3447,7 +3576,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:26">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -3523,7 +3652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:26">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -3599,7 +3728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:26">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -3675,7 +3804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:26">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -3751,7 +3880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:26">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -3827,7 +3956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:26">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -3903,7 +4032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:26">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -3979,7 +4108,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:26">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -4055,7 +4184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:26">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -4131,7 +4260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:26">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -4207,7 +4336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:26">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -4283,7 +4412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:26">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -4359,7 +4488,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:26">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -4435,7 +4564,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:26">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -4512,7 +4641,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:26">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -4588,7 +4717,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:26">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -4665,7 +4794,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:26">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -4742,7 +4871,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:26">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -4819,7 +4948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:26">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -4897,7 +5026,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:26">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -4974,7 +5103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:26">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -5052,7 +5181,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:26">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -5128,7 +5257,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:26">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -5206,7 +5335,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:26">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -5282,7 +5411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:26">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -5360,7 +5489,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:26">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -5436,7 +5565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:26">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -5512,7 +5641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:26">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -5589,7 +5718,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:26">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -5667,7 +5796,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:26">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -5745,7 +5874,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:26">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -5823,7 +5952,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:26">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -5900,7 +6029,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:26">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -5976,7 +6105,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:26">
       <c r="A68" t="s">
         <v>68</v>
       </c>
@@ -6054,7 +6183,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:26">
       <c r="B69" s="4"/>
       <c r="C69" s="9"/>
       <c r="D69" s="2"/>
@@ -6063,7 +6192,7 @@
       <c r="J69" s="4"/>
       <c r="K69" s="9"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:26">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -6139,7 +6268,7 @@
         <v>3743</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:26">
       <c r="A72" s="1" t="s">
         <v>79</v>
       </c>
@@ -6178,7 +6307,7 @@
       <c r="Q72" s="2"/>
       <c r="R72" s="2"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:26">
       <c r="D73" s="6">
         <f>D70-D72</f>
         <v>0</v>
@@ -6207,7 +6336,7 @@
       <c r="K73" s="12"/>
       <c r="L73" s="2"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:26">
       <c r="D75" s="6">
         <f>D70-L70-T70</f>
         <v>0</v>
@@ -6254,7 +6383,7 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="33.47265625" customWidth="1"/>
     <col min="2" max="2" width="6.578125" style="7" customWidth="1"/>
@@ -6262,7 +6391,7 @@
     <col min="7" max="7" width="8.83984375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11">
       <c r="C1" s="23" t="s">
         <v>90</v>
       </c>
@@ -6276,7 +6405,7 @@
       <c r="I1" s="23"/>
       <c r="J1" s="23"/>
     </row>
-    <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:11" ht="28.8">
       <c r="A2" s="1" t="s">
         <v>89</v>
       </c>
@@ -6305,7 +6434,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>93</v>
       </c>
@@ -6337,7 +6466,7 @@
         <v>868214</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>94</v>
       </c>
@@ -6369,7 +6498,7 @@
         <v>436231</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>92</v>
       </c>
@@ -6401,7 +6530,7 @@
         <v>79854</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -6411,7 +6540,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>95</v>
       </c>
@@ -6449,7 +6578,7 @@
         <v>1384299</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>110</v>
       </c>
@@ -6486,7 +6615,7 @@
         <v>948068</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>98</v>
       </c>
@@ -6541,7 +6670,7 @@
       <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9.26171875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.734375" bestFit="1" customWidth="1"/>
@@ -6560,7 +6689,7 @@
     <col min="15" max="15" width="6.15625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:16" ht="57.6">
       <c r="A1" s="17" t="s">
         <v>73</v>
       </c>
@@ -6602,7 +6731,7 @@
       </c>
       <c r="P1" s="17"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:16">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="19"/>
@@ -6620,7 +6749,7 @@
       <c r="O2" s="17"/>
       <c r="P2" s="17"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -6668,7 +6797,7 @@
         <v>86489.872852134475</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>71</v>
       </c>
@@ -6716,7 +6845,7 @@
         <v>46677.698501336723</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>1916</v>
       </c>
@@ -6764,7 +6893,7 @@
         <v>629.01698040629026</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>96</v>
       </c>
@@ -6821,13 +6950,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A4790B-7936-407E-A955-9B53542996BA}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>111</v>
       </c>
@@ -6841,7 +6970,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1911</v>
       </c>
@@ -6857,7 +6986,7 @@
         <v>1.3888888888888888</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>1912</v>
       </c>
@@ -6873,7 +7002,7 @@
         <v>1.3888888888888888</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>1913</v>
       </c>
@@ -6889,7 +7018,7 @@
         <v>1.3888888888888888</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>1914</v>
       </c>
@@ -6905,7 +7034,7 @@
         <v>0.83333333333333326</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>1915</v>
       </c>
@@ -6921,7 +7050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>95</v>
       </c>
@@ -6932,6 +7061,2629 @@
         <f>SUM(E2:E6)</f>
         <v>3.6</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABDD6C0B-4D47-4404-9463-E5E3F5EDE31F}">
+  <dimension ref="A1:H74"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="28.734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.62890625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.1015625" customWidth="1"/>
+    <col min="5" max="5" width="6.15625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="10.62890625" customWidth="1"/>
+    <col min="7" max="8" width="10.20703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="57.6">
+      <c r="A1" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="19"/>
+      <c r="F1" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1757</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1215</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1003</v>
+      </c>
+      <c r="G2">
+        <v>584</v>
+      </c>
+      <c r="H2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2">
+        <v>47824</v>
+      </c>
+      <c r="C3" s="2">
+        <v>16876</v>
+      </c>
+      <c r="D3">
+        <v>108</v>
+      </c>
+      <c r="F3" s="2">
+        <v>16775</v>
+      </c>
+      <c r="G3" s="2">
+        <v>12807</v>
+      </c>
+      <c r="H3">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2">
+        <v>42667</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4536</v>
+      </c>
+      <c r="D4">
+        <v>470</v>
+      </c>
+      <c r="F4" s="2">
+        <v>10152</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1660</v>
+      </c>
+      <c r="H4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2">
+        <v>160611</v>
+      </c>
+      <c r="C5" s="2">
+        <v>18357</v>
+      </c>
+      <c r="D5">
+        <v>216</v>
+      </c>
+      <c r="F5" s="2">
+        <v>33679</v>
+      </c>
+      <c r="G5" s="2">
+        <v>5803</v>
+      </c>
+      <c r="H5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1700</v>
+      </c>
+      <c r="C6">
+        <v>544</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>841</v>
+      </c>
+      <c r="G6">
+        <v>312</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2">
+        <v>16974</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3125</v>
+      </c>
+      <c r="D7">
+        <v>203</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2743</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1087</v>
+      </c>
+      <c r="H7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2">
+        <v>59422</v>
+      </c>
+      <c r="C8" s="2">
+        <v>17389</v>
+      </c>
+      <c r="D8">
+        <v>88</v>
+      </c>
+      <c r="F8" s="2">
+        <v>15071</v>
+      </c>
+      <c r="G8" s="2">
+        <v>7136</v>
+      </c>
+      <c r="H8">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2">
+        <v>212332</v>
+      </c>
+      <c r="C9" s="2">
+        <v>54064</v>
+      </c>
+      <c r="D9">
+        <v>577</v>
+      </c>
+      <c r="F9" s="2">
+        <v>59901</v>
+      </c>
+      <c r="G9" s="2">
+        <v>24961</v>
+      </c>
+      <c r="H9">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2">
+        <v>94489</v>
+      </c>
+      <c r="C10" s="2">
+        <v>71579</v>
+      </c>
+      <c r="D10">
+        <v>449</v>
+      </c>
+      <c r="F10" s="2">
+        <v>25182</v>
+      </c>
+      <c r="G10" s="2">
+        <v>23126</v>
+      </c>
+      <c r="H10">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="2">
+        <v>30721</v>
+      </c>
+      <c r="C11" s="2">
+        <v>5122</v>
+      </c>
+      <c r="D11">
+        <v>175</v>
+      </c>
+      <c r="F11" s="2">
+        <v>8484</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1518</v>
+      </c>
+      <c r="H11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2">
+        <v>45685</v>
+      </c>
+      <c r="C12" s="2">
+        <v>20774</v>
+      </c>
+      <c r="D12">
+        <v>185</v>
+      </c>
+      <c r="F12" s="2">
+        <v>12102</v>
+      </c>
+      <c r="G12" s="2">
+        <v>8639</v>
+      </c>
+      <c r="H12">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="2">
+        <v>176862</v>
+      </c>
+      <c r="C13" s="2">
+        <v>83756</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1543</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="2">
+        <v>40177</v>
+      </c>
+      <c r="G13" s="2">
+        <v>31357</v>
+      </c>
+      <c r="H13">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2">
+        <v>26815</v>
+      </c>
+      <c r="C14" s="2">
+        <v>33341</v>
+      </c>
+      <c r="D14">
+        <v>335</v>
+      </c>
+      <c r="F14" s="2">
+        <v>7597</v>
+      </c>
+      <c r="G14" s="2">
+        <v>9898</v>
+      </c>
+      <c r="H14">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2">
+        <v>30926</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2179</v>
+      </c>
+      <c r="D15">
+        <v>65</v>
+      </c>
+      <c r="F15" s="2">
+        <v>5257</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1409</v>
+      </c>
+      <c r="H15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="2">
+        <v>204627</v>
+      </c>
+      <c r="C16" s="2">
+        <v>33058</v>
+      </c>
+      <c r="D16">
+        <v>271</v>
+      </c>
+      <c r="F16" s="2">
+        <v>43967</v>
+      </c>
+      <c r="G16" s="2">
+        <v>17881</v>
+      </c>
+      <c r="H16">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="2">
+        <v>3938</v>
+      </c>
+      <c r="C17">
+        <v>406</v>
+      </c>
+      <c r="D17">
+        <v>60</v>
+      </c>
+      <c r="F17">
+        <v>982</v>
+      </c>
+      <c r="G17">
+        <v>228</v>
+      </c>
+      <c r="H17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="2">
+        <v>20538</v>
+      </c>
+      <c r="C18" s="2">
+        <v>4758</v>
+      </c>
+      <c r="D18">
+        <v>97</v>
+      </c>
+      <c r="F18" s="2">
+        <v>6013</v>
+      </c>
+      <c r="G18" s="2">
+        <v>2240</v>
+      </c>
+      <c r="H18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="2">
+        <v>4147</v>
+      </c>
+      <c r="C19">
+        <v>780</v>
+      </c>
+      <c r="D19">
+        <v>72</v>
+      </c>
+      <c r="F19">
+        <v>952</v>
+      </c>
+      <c r="G19">
+        <v>284</v>
+      </c>
+      <c r="H19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="2">
+        <v>253491</v>
+      </c>
+      <c r="C20" s="2">
+        <v>27217</v>
+      </c>
+      <c r="D20">
+        <v>165</v>
+      </c>
+      <c r="F20" s="2">
+        <v>54094</v>
+      </c>
+      <c r="G20" s="2">
+        <v>14128</v>
+      </c>
+      <c r="H20">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="2">
+        <v>16775</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1787</v>
+      </c>
+      <c r="D21">
+        <v>93</v>
+      </c>
+      <c r="F21" s="2">
+        <v>2754</v>
+      </c>
+      <c r="G21">
+        <v>730</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="2">
+        <v>99757</v>
+      </c>
+      <c r="C22" s="2">
+        <v>14302</v>
+      </c>
+      <c r="D22">
+        <v>219</v>
+      </c>
+      <c r="F22" s="2">
+        <v>22932</v>
+      </c>
+      <c r="G22" s="2">
+        <v>6215</v>
+      </c>
+      <c r="H22">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="2">
+        <v>233961</v>
+      </c>
+      <c r="C23" s="2">
+        <v>37095</v>
+      </c>
+      <c r="D23">
+        <v>280</v>
+      </c>
+      <c r="F23" s="2">
+        <v>47335</v>
+      </c>
+      <c r="G23" s="2">
+        <v>13787</v>
+      </c>
+      <c r="H23">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>518</v>
+      </c>
+      <c r="C24">
+        <v>74</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>146</v>
+      </c>
+      <c r="G24">
+        <v>174</v>
+      </c>
+      <c r="H24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="2">
+        <v>14989</v>
+      </c>
+      <c r="C25" s="2">
+        <v>4893</v>
+      </c>
+      <c r="D25">
+        <v>7</v>
+      </c>
+      <c r="F25" s="2">
+        <v>5008</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1767</v>
+      </c>
+      <c r="H25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="2">
+        <v>3908</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1658</v>
+      </c>
+      <c r="D26">
+        <v>34</v>
+      </c>
+      <c r="F26">
+        <v>967</v>
+      </c>
+      <c r="G26">
+        <v>573</v>
+      </c>
+      <c r="H26">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="2">
+        <v>17725</v>
+      </c>
+      <c r="C27" s="2">
+        <v>15710</v>
+      </c>
+      <c r="D27">
+        <v>36</v>
+      </c>
+      <c r="F27" s="2">
+        <v>4364</v>
+      </c>
+      <c r="G27" s="2">
+        <v>3644</v>
+      </c>
+      <c r="H27">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="2">
+        <v>162055</v>
+      </c>
+      <c r="C28" s="2">
+        <v>28037</v>
+      </c>
+      <c r="D28">
+        <v>125</v>
+      </c>
+      <c r="F28" s="2">
+        <v>38062</v>
+      </c>
+      <c r="G28" s="2">
+        <v>11861</v>
+      </c>
+      <c r="H28">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="2">
+        <v>77482</v>
+      </c>
+      <c r="C29" s="2">
+        <v>47590</v>
+      </c>
+      <c r="D29">
+        <v>376</v>
+      </c>
+      <c r="F29" s="2">
+        <v>23006</v>
+      </c>
+      <c r="G29" s="2">
+        <v>17174</v>
+      </c>
+      <c r="H29">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="2">
+        <v>38410</v>
+      </c>
+      <c r="C30" s="2">
+        <v>21748</v>
+      </c>
+      <c r="D30">
+        <v>188</v>
+      </c>
+      <c r="F30" s="2">
+        <v>8577</v>
+      </c>
+      <c r="G30" s="2">
+        <v>5029</v>
+      </c>
+      <c r="H30">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="2">
+        <v>3553</v>
+      </c>
+      <c r="C31">
+        <v>310</v>
+      </c>
+      <c r="D31">
+        <v>30</v>
+      </c>
+      <c r="F31">
+        <v>644</v>
+      </c>
+      <c r="G31">
+        <v>332</v>
+      </c>
+      <c r="H31">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="2">
+        <v>76452</v>
+      </c>
+      <c r="C32" s="2">
+        <v>25086</v>
+      </c>
+      <c r="D32">
+        <v>300</v>
+      </c>
+      <c r="F32" s="2">
+        <v>20542</v>
+      </c>
+      <c r="G32" s="2">
+        <v>12289</v>
+      </c>
+      <c r="H32">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="2">
+        <v>367635</v>
+      </c>
+      <c r="C33" s="2">
+        <v>74384</v>
+      </c>
+      <c r="D33">
+        <v>353</v>
+      </c>
+      <c r="F33" s="2">
+        <v>77615</v>
+      </c>
+      <c r="G33" s="2">
+        <v>32117</v>
+      </c>
+      <c r="H33">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="2">
+        <v>24273</v>
+      </c>
+      <c r="C34" s="2">
+        <v>4233</v>
+      </c>
+      <c r="D34">
+        <v>36</v>
+      </c>
+      <c r="F34" s="2">
+        <v>4106</v>
+      </c>
+      <c r="G34" s="2">
+        <v>1269</v>
+      </c>
+      <c r="H34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="2">
+        <v>48700</v>
+      </c>
+      <c r="C35" s="2">
+        <v>13855</v>
+      </c>
+      <c r="D35">
+        <v>69</v>
+      </c>
+      <c r="F35" s="2">
+        <v>11446</v>
+      </c>
+      <c r="G35" s="2">
+        <v>5327</v>
+      </c>
+      <c r="H35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="2">
+        <v>147019</v>
+      </c>
+      <c r="C36" s="2">
+        <v>45711</v>
+      </c>
+      <c r="D36">
+        <v>270</v>
+      </c>
+      <c r="F36" s="2">
+        <v>49201</v>
+      </c>
+      <c r="G36" s="2">
+        <v>17658</v>
+      </c>
+      <c r="H36">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="2">
+        <v>89973</v>
+      </c>
+      <c r="C37" s="2">
+        <v>37097</v>
+      </c>
+      <c r="D37">
+        <v>112</v>
+      </c>
+      <c r="F37" s="2">
+        <v>32867</v>
+      </c>
+      <c r="G37" s="2">
+        <v>15809</v>
+      </c>
+      <c r="H37">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="2">
+        <v>45313</v>
+      </c>
+      <c r="C38" s="2">
+        <v>33483</v>
+      </c>
+      <c r="D38">
+        <v>140</v>
+      </c>
+      <c r="F38" s="2">
+        <v>15694</v>
+      </c>
+      <c r="G38" s="2">
+        <v>13336</v>
+      </c>
+      <c r="H38">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="2">
+        <v>68938</v>
+      </c>
+      <c r="C39" s="2">
+        <v>11487</v>
+      </c>
+      <c r="D39">
+        <v>112</v>
+      </c>
+      <c r="F39" s="2">
+        <v>16995</v>
+      </c>
+      <c r="G39" s="2">
+        <v>5203</v>
+      </c>
+      <c r="H39">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="2">
+        <v>103859</v>
+      </c>
+      <c r="C40" s="2">
+        <v>44739</v>
+      </c>
+      <c r="D40">
+        <v>326</v>
+      </c>
+      <c r="F40" s="2">
+        <v>21569</v>
+      </c>
+      <c r="G40" s="2">
+        <v>15549</v>
+      </c>
+      <c r="H40">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="2">
+        <v>164487</v>
+      </c>
+      <c r="C41" s="2">
+        <v>57791</v>
+      </c>
+      <c r="D41">
+        <v>376</v>
+      </c>
+      <c r="F41" s="2">
+        <v>52969</v>
+      </c>
+      <c r="G41" s="2">
+        <v>25640</v>
+      </c>
+      <c r="H41">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="2">
+        <v>4195</v>
+      </c>
+      <c r="C42" s="2">
+        <v>1262</v>
+      </c>
+      <c r="D42">
+        <v>6</v>
+      </c>
+      <c r="F42" s="2">
+        <v>1008</v>
+      </c>
+      <c r="G42">
+        <v>576</v>
+      </c>
+      <c r="H42">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="2">
+        <v>37883</v>
+      </c>
+      <c r="C43" s="2">
+        <v>8894</v>
+      </c>
+      <c r="D43">
+        <v>100</v>
+      </c>
+      <c r="F43" s="2">
+        <v>9784</v>
+      </c>
+      <c r="G43" s="2">
+        <v>3012</v>
+      </c>
+      <c r="H43">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="2">
+        <v>31999</v>
+      </c>
+      <c r="C44" s="2">
+        <v>33424</v>
+      </c>
+      <c r="D44">
+        <v>270</v>
+      </c>
+      <c r="F44" s="2">
+        <v>9141</v>
+      </c>
+      <c r="G44" s="2">
+        <v>8471</v>
+      </c>
+      <c r="H44">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="2">
+        <v>195752</v>
+      </c>
+      <c r="C45" s="2">
+        <v>60969</v>
+      </c>
+      <c r="D45">
+        <v>888</v>
+      </c>
+      <c r="F45" s="2">
+        <v>45419</v>
+      </c>
+      <c r="G45" s="2">
+        <v>25160</v>
+      </c>
+      <c r="H45">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="2">
+        <v>119713</v>
+      </c>
+      <c r="C46" s="2">
+        <v>77806</v>
+      </c>
+      <c r="D46">
+        <v>736</v>
+      </c>
+      <c r="F46" s="2">
+        <v>32963</v>
+      </c>
+      <c r="G46" s="2">
+        <v>27832</v>
+      </c>
+      <c r="H46">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C47">
+        <v>843</v>
+      </c>
+      <c r="D47">
+        <v>65</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G47">
+        <v>235</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="2">
+        <v>296462</v>
+      </c>
+      <c r="C48" s="2">
+        <v>38810</v>
+      </c>
+      <c r="D48">
+        <v>381</v>
+      </c>
+      <c r="F48" s="2">
+        <v>63841</v>
+      </c>
+      <c r="G48" s="2">
+        <v>17620</v>
+      </c>
+      <c r="H48">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="2">
+        <v>4389</v>
+      </c>
+      <c r="C49">
+        <v>716</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E49" s="9"/>
+      <c r="F49">
+        <v>458</v>
+      </c>
+      <c r="G49">
+        <v>221</v>
+      </c>
+      <c r="H49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="2">
+        <v>7171</v>
+      </c>
+      <c r="C50">
+        <v>609</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E50" s="9"/>
+      <c r="F50" s="2">
+        <v>2188</v>
+      </c>
+      <c r="G50">
+        <v>387</v>
+      </c>
+      <c r="H50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="2">
+        <v>4494</v>
+      </c>
+      <c r="C51" s="2">
+        <v>1352</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E51" s="9"/>
+      <c r="F51" s="2">
+        <v>1141</v>
+      </c>
+      <c r="G51">
+        <v>641</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52">
+        <v>67</v>
+      </c>
+      <c r="C52">
+        <v>4</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E52" s="9"/>
+      <c r="F52">
+        <v>19</v>
+      </c>
+      <c r="G52">
+        <v>3</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E53" s="9"/>
+      <c r="F53" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54">
+        <v>52</v>
+      </c>
+      <c r="C54">
+        <v>6</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E54" s="9"/>
+      <c r="F54">
+        <v>33</v>
+      </c>
+      <c r="G54">
+        <v>7</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55">
+        <v>352</v>
+      </c>
+      <c r="C55">
+        <v>62</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
+      </c>
+      <c r="F55">
+        <v>91</v>
+      </c>
+      <c r="G55">
+        <v>58</v>
+      </c>
+      <c r="H55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56">
+        <v>841</v>
+      </c>
+      <c r="C56">
+        <v>11</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E56" s="9"/>
+      <c r="F56">
+        <v>256</v>
+      </c>
+      <c r="G56">
+        <v>8</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" s="2">
+        <v>10836</v>
+      </c>
+      <c r="C57" s="2">
+        <v>6124</v>
+      </c>
+      <c r="D57">
+        <v>31</v>
+      </c>
+      <c r="F57" s="2">
+        <v>2825</v>
+      </c>
+      <c r="G57" s="2">
+        <v>2704</v>
+      </c>
+      <c r="H57">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58">
+        <v>85</v>
+      </c>
+      <c r="C58">
+        <v>16</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E58" s="9"/>
+      <c r="F58">
+        <v>293</v>
+      </c>
+      <c r="G58">
+        <v>25</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" s="2">
+        <v>17963</v>
+      </c>
+      <c r="C59" s="2">
+        <v>23162</v>
+      </c>
+      <c r="D59">
+        <v>41</v>
+      </c>
+      <c r="F59" s="2">
+        <v>5106</v>
+      </c>
+      <c r="G59" s="2">
+        <v>5828</v>
+      </c>
+      <c r="H59">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" s="2">
+        <v>2188</v>
+      </c>
+      <c r="C60" s="2">
+        <v>1146</v>
+      </c>
+      <c r="D60">
+        <v>26</v>
+      </c>
+      <c r="F60">
+        <v>746</v>
+      </c>
+      <c r="G60">
+        <v>441</v>
+      </c>
+      <c r="H60">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61">
+        <v>43</v>
+      </c>
+      <c r="C61">
+        <v>44</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E61" s="9"/>
+      <c r="F61">
+        <v>4</v>
+      </c>
+      <c r="G61">
+        <v>16</v>
+      </c>
+      <c r="H61" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C62">
+        <v>25</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E62" s="9"/>
+      <c r="F62" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63">
+        <v>594</v>
+      </c>
+      <c r="C63">
+        <v>70</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E63" s="9"/>
+      <c r="F63">
+        <v>103</v>
+      </c>
+      <c r="G63">
+        <v>146</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64">
+        <v>26</v>
+      </c>
+      <c r="C64">
+        <v>18</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E64" s="9"/>
+      <c r="F64">
+        <v>18</v>
+      </c>
+      <c r="G64">
+        <v>8</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65">
+        <v>67</v>
+      </c>
+      <c r="C65">
+        <v>566</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E65" s="9"/>
+      <c r="F65">
+        <v>19</v>
+      </c>
+      <c r="G65">
+        <v>229</v>
+      </c>
+      <c r="H65">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" s="2">
+        <v>1404</v>
+      </c>
+      <c r="C66" s="2">
+        <v>11292</v>
+      </c>
+      <c r="D66">
+        <v>72</v>
+      </c>
+      <c r="F66" s="2">
+        <v>45055</v>
+      </c>
+      <c r="G66" s="2">
+        <v>1741</v>
+      </c>
+      <c r="H66">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" s="2">
+        <v>4464</v>
+      </c>
+      <c r="C67">
+        <v>116</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E67" s="9"/>
+      <c r="F67">
+        <v>611</v>
+      </c>
+      <c r="G67">
+        <v>734</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="B68" s="2"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="9"/>
+      <c r="H68" s="4"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" s="2">
+        <v>3982348</v>
+      </c>
+      <c r="C69" s="2">
+        <v>1187493</v>
+      </c>
+      <c r="D69" s="2">
+        <v>11201</v>
+      </c>
+      <c r="E69" s="12"/>
+      <c r="F69" s="2">
+        <v>1022893</v>
+      </c>
+      <c r="G69" s="2">
+        <v>466645</v>
+      </c>
+      <c r="H69" s="2">
+        <v>7776</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B71" s="6">
+        <f>SUM(B2:B67)</f>
+        <v>3982348</v>
+      </c>
+      <c r="C71" s="6">
+        <f>SUM(C2:C67)</f>
+        <v>1187493</v>
+      </c>
+      <c r="D71" s="6">
+        <f>SUM(D2:D67)</f>
+        <v>11201</v>
+      </c>
+      <c r="E71" s="12"/>
+      <c r="F71" s="6">
+        <f>SUM(F2:F67)</f>
+        <v>1022893</v>
+      </c>
+      <c r="G71" s="6">
+        <f>SUM(G2:G67)</f>
+        <v>466645</v>
+      </c>
+      <c r="H71" s="6">
+        <f>SUM(H2:H67)</f>
+        <v>7776</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="B72" s="6">
+        <f>B69-B71</f>
+        <v>0</v>
+      </c>
+      <c r="C72" s="6">
+        <f>C69-C71</f>
+        <v>0</v>
+      </c>
+      <c r="D72" s="6">
+        <f>D69-D71</f>
+        <v>0</v>
+      </c>
+      <c r="E72" s="12"/>
+      <c r="F72" s="6">
+        <f>F69-F71</f>
+        <v>0</v>
+      </c>
+      <c r="G72" s="6">
+        <f>G69-G71</f>
+        <v>0</v>
+      </c>
+      <c r="H72" s="6">
+        <f>H69-H71</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="B74" s="6">
+        <f>B69-J69-R69</f>
+        <v>3982348</v>
+      </c>
+      <c r="C74" s="6">
+        <f>C69-K69-S69</f>
+        <v>1187493</v>
+      </c>
+      <c r="D74" s="6">
+        <f>D69-L69-T69</f>
+        <v>11201</v>
+      </c>
+      <c r="F74" s="6">
+        <f>F69-N69-V69</f>
+        <v>1022893</v>
+      </c>
+      <c r="G74" s="6">
+        <f>G69-O69-W69</f>
+        <v>466645</v>
+      </c>
+      <c r="H74" s="6">
+        <f>H69-P69-X69</f>
+        <v>7776</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D78787F9-C6E2-4455-9C98-EC045ED3CD33}">
+  <dimension ref="A1:P38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V7" sqref="V7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="22.578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1015625" customWidth="1"/>
+    <col min="3" max="3" width="9.83984375" customWidth="1"/>
+    <col min="4" max="4" width="10.20703125" customWidth="1"/>
+    <col min="5" max="5" width="5.41796875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="8.89453125" customWidth="1"/>
+    <col min="7" max="7" width="10.20703125" customWidth="1"/>
+    <col min="8" max="8" width="7.68359375" customWidth="1"/>
+    <col min="9" max="9" width="8.83984375" style="7"/>
+    <col min="10" max="12" width="1.7890625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="1.7890625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.26171875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="1.7890625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="43.2">
+      <c r="A1" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" s="19"/>
+      <c r="F1" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="27">
+        <v>99591</v>
+      </c>
+      <c r="C3" s="27">
+        <v>12802</v>
+      </c>
+      <c r="D3" s="27">
+        <v>27</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="27">
+        <v>37256</v>
+      </c>
+      <c r="G3" s="27">
+        <v>9991</v>
+      </c>
+      <c r="H3" s="27">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="27">
+        <v>8716</v>
+      </c>
+      <c r="C4" s="27">
+        <v>634</v>
+      </c>
+      <c r="D4" s="27">
+        <v>10</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="27">
+        <v>2689</v>
+      </c>
+      <c r="G4" s="27">
+        <v>303</v>
+      </c>
+      <c r="H4" s="27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="27">
+        <v>28988</v>
+      </c>
+      <c r="C5" s="27">
+        <v>20017</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="27">
+        <v>8692</v>
+      </c>
+      <c r="G5" s="27">
+        <v>5843</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="27">
+        <v>901</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="27">
+        <v>618</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="27">
+        <v>38364</v>
+      </c>
+      <c r="C7" s="27">
+        <v>11164</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="27">
+        <v>10059</v>
+      </c>
+      <c r="G7" s="27">
+        <v>4375</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="27">
+        <v>175659</v>
+      </c>
+      <c r="C8" s="27">
+        <v>45518</v>
+      </c>
+      <c r="D8" s="27">
+        <v>37</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="27">
+        <v>58696</v>
+      </c>
+      <c r="G8" s="27">
+        <v>21130</v>
+      </c>
+      <c r="H8" s="27">
+        <v>28</v>
+      </c>
+      <c r="J8" s="26">
+        <f>SUM(B3:B7) -B8</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="26">
+        <f>SUM(C3:C7) -C8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="26">
+        <f>SUM(D3:D7) -D8</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="26">
+        <f>SUM(F3:F7) -F8</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="26">
+        <f>SUM(G3:G7) -G8</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="26">
+        <f>SUM(H3:H7) -H8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="7" customFormat="1">
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" s="27">
+        <v>119427</v>
+      </c>
+      <c r="C10" s="27">
+        <v>45639</v>
+      </c>
+      <c r="D10" s="27">
+        <v>168</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="27">
+        <v>19539</v>
+      </c>
+      <c r="G10" s="27">
+        <v>13966</v>
+      </c>
+      <c r="H10" s="27">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" s="27">
+        <v>402078</v>
+      </c>
+      <c r="C11" s="27">
+        <v>104541</v>
+      </c>
+      <c r="D11" s="27">
+        <v>928</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="27">
+        <v>87789</v>
+      </c>
+      <c r="G11" s="27">
+        <v>37686</v>
+      </c>
+      <c r="H11" s="27">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" s="27">
+        <v>14859</v>
+      </c>
+      <c r="C12" s="27">
+        <v>13375</v>
+      </c>
+      <c r="D12" s="27">
+        <v>33</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="27">
+        <v>6858</v>
+      </c>
+      <c r="G12" s="27">
+        <v>2717</v>
+      </c>
+      <c r="H12" s="27">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" s="27">
+        <v>116377</v>
+      </c>
+      <c r="C13" s="27">
+        <v>58969</v>
+      </c>
+      <c r="D13" s="27">
+        <v>428</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="27">
+        <v>27547</v>
+      </c>
+      <c r="G13" s="27">
+        <v>9855</v>
+      </c>
+      <c r="H13" s="27">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="27">
+        <v>12</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="27">
+        <v>1</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15" s="27">
+        <v>198827</v>
+      </c>
+      <c r="C15" s="27">
+        <v>53817</v>
+      </c>
+      <c r="D15" s="27">
+        <v>140</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="27">
+        <v>38541</v>
+      </c>
+      <c r="G15" s="27">
+        <v>17842</v>
+      </c>
+      <c r="H15" s="27">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="27">
+        <v>6</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="27">
+        <v>7</v>
+      </c>
+      <c r="H16" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B17" s="27">
+        <v>279211</v>
+      </c>
+      <c r="C17" s="27">
+        <v>82720</v>
+      </c>
+      <c r="D17" s="27">
+        <v>1075</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="27">
+        <v>63164</v>
+      </c>
+      <c r="G17" s="27">
+        <v>29124</v>
+      </c>
+      <c r="H17" s="27">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" s="27">
+        <v>1600568</v>
+      </c>
+      <c r="C18" s="27">
+        <v>370800</v>
+      </c>
+      <c r="D18" s="27">
+        <v>2772</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="27">
+        <v>361325</v>
+      </c>
+      <c r="G18" s="27">
+        <v>138514</v>
+      </c>
+      <c r="H18" s="27">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" t="s">
+        <v>125</v>
+      </c>
+      <c r="B19" s="27">
+        <v>129</v>
+      </c>
+      <c r="C19" s="27">
+        <v>9</v>
+      </c>
+      <c r="D19" s="27">
+        <v>5</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="27">
+        <v>102</v>
+      </c>
+      <c r="G19" s="27">
+        <v>1</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" t="s">
+        <v>126</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="27">
+        <v>5</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" t="s">
+        <v>115</v>
+      </c>
+      <c r="B21" s="27">
+        <v>2731476</v>
+      </c>
+      <c r="C21" s="27">
+        <v>729887</v>
+      </c>
+      <c r="D21" s="27">
+        <v>5555</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="27">
+        <v>604865</v>
+      </c>
+      <c r="G21" s="27">
+        <v>257713</v>
+      </c>
+      <c r="H21" s="27">
+        <v>5636</v>
+      </c>
+      <c r="J21" s="26">
+        <f>SUM(B10:B20) -B21</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="26">
+        <f>SUM(C10:C20) -C21</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="26">
+        <f>SUM(D10:D20) -D21</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="26">
+        <f>SUM(F10:F20) -F21</f>
+        <v>0</v>
+      </c>
+      <c r="O21" s="26">
+        <f>SUM(G10:G20) -G21</f>
+        <v>-8000</v>
+      </c>
+      <c r="P21" s="26">
+        <f>SUM(H10:H20) -H21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" s="7" customFormat="1">
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" s="27">
+        <v>646679</v>
+      </c>
+      <c r="C23" s="27">
+        <v>154935</v>
+      </c>
+      <c r="D23" s="27">
+        <v>2242</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="24">
+        <v>146858</v>
+      </c>
+      <c r="G23" s="24">
+        <v>73575</v>
+      </c>
+      <c r="H23" s="24">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" t="s">
+        <v>128</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="27">
+        <v>37</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="H24" s="25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" t="s">
+        <v>129</v>
+      </c>
+      <c r="B25" s="27">
+        <v>99289</v>
+      </c>
+      <c r="C25" s="27">
+        <v>64504</v>
+      </c>
+      <c r="D25" s="27">
+        <v>1079</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" s="24">
+        <v>15345</v>
+      </c>
+      <c r="G25" s="24">
+        <v>17232</v>
+      </c>
+      <c r="H25" s="24">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" t="s">
+        <v>130</v>
+      </c>
+      <c r="B26" s="27">
+        <v>26291</v>
+      </c>
+      <c r="C26" s="27">
+        <v>51878</v>
+      </c>
+      <c r="D26" s="27">
+        <v>132</v>
+      </c>
+      <c r="E26" s="12"/>
+      <c r="F26" s="24">
+        <v>4419</v>
+      </c>
+      <c r="G26" s="24">
+        <v>9920</v>
+      </c>
+      <c r="H26" s="24">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" t="s">
+        <v>134</v>
+      </c>
+      <c r="B27" s="27">
+        <v>13016</v>
+      </c>
+      <c r="C27" s="27">
+        <v>9367</v>
+      </c>
+      <c r="D27" s="27">
+        <v>32</v>
+      </c>
+      <c r="E27" s="12"/>
+      <c r="F27" s="24">
+        <v>4332</v>
+      </c>
+      <c r="G27" s="24">
+        <v>3911</v>
+      </c>
+      <c r="H27" s="24">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" t="s">
+        <v>131</v>
+      </c>
+      <c r="B28" s="27">
+        <v>247636</v>
+      </c>
+      <c r="C28" s="27">
+        <v>87081</v>
+      </c>
+      <c r="D28" s="27">
+        <v>1467</v>
+      </c>
+      <c r="E28" s="12"/>
+      <c r="F28" s="24">
+        <v>87173</v>
+      </c>
+      <c r="G28" s="24">
+        <v>49776</v>
+      </c>
+      <c r="H28" s="24">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="27">
+        <v>29272</v>
+      </c>
+      <c r="C29" s="27">
+        <v>38839</v>
+      </c>
+      <c r="D29" s="27">
+        <v>580</v>
+      </c>
+      <c r="E29" s="12"/>
+      <c r="F29" s="24">
+        <v>5398</v>
+      </c>
+      <c r="G29" s="24">
+        <v>14110</v>
+      </c>
+      <c r="H29" s="24">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" t="s">
+        <v>132</v>
+      </c>
+      <c r="B30" s="27">
+        <v>1787</v>
+      </c>
+      <c r="C30" s="27">
+        <v>2669</v>
+      </c>
+      <c r="D30" s="27">
+        <v>40</v>
+      </c>
+      <c r="E30" s="12"/>
+      <c r="F30" s="24">
+        <v>654</v>
+      </c>
+      <c r="G30" s="24">
+        <v>825</v>
+      </c>
+      <c r="H30" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" t="s">
+        <v>133</v>
+      </c>
+      <c r="B31" s="27">
+        <v>538</v>
+      </c>
+      <c r="C31" s="27">
+        <v>980</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31" s="12"/>
+      <c r="F31" s="24">
+        <v>121</v>
+      </c>
+      <c r="G31" s="24">
+        <v>471</v>
+      </c>
+      <c r="H31" s="25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" t="s">
+        <v>115</v>
+      </c>
+      <c r="B32" s="27">
+        <v>1064508</v>
+      </c>
+      <c r="C32" s="27">
+        <v>410253</v>
+      </c>
+      <c r="D32" s="27">
+        <v>5609</v>
+      </c>
+      <c r="E32" s="12"/>
+      <c r="F32" s="24">
+        <v>264300</v>
+      </c>
+      <c r="G32" s="24">
+        <v>169820</v>
+      </c>
+      <c r="H32" s="24">
+        <v>2111</v>
+      </c>
+      <c r="J32" s="6">
+        <f>SUM(B23:B31) -B32</f>
+        <v>0</v>
+      </c>
+      <c r="K32" s="6">
+        <f>SUM(C23:C31) -C32</f>
+        <v>0</v>
+      </c>
+      <c r="L32" s="6">
+        <f>SUM(D23:D31) -D32</f>
+        <v>0</v>
+      </c>
+      <c r="N32" s="6">
+        <f>SUM(F23:F31) -F32</f>
+        <v>0</v>
+      </c>
+      <c r="O32" s="6">
+        <f>SUM(G23:G31) -G32</f>
+        <v>0</v>
+      </c>
+      <c r="P32" s="6">
+        <f>SUM(H23:H31) -H32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" s="7" customFormat="1">
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" t="s">
+        <v>135</v>
+      </c>
+      <c r="B34" s="2">
+        <v>10705</v>
+      </c>
+      <c r="C34" s="2">
+        <v>2736</v>
+      </c>
+      <c r="D34" s="29">
+        <v>0</v>
+      </c>
+      <c r="E34" s="12"/>
+      <c r="F34" s="24">
+        <v>1027</v>
+      </c>
+      <c r="G34" s="24">
+        <v>1871</v>
+      </c>
+      <c r="H34" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" t="s">
+        <v>136</v>
+      </c>
+      <c r="B35" s="29">
+        <v>0</v>
+      </c>
+      <c r="C35" s="29">
+        <v>0</v>
+      </c>
+      <c r="D35" s="29">
+        <v>0</v>
+      </c>
+      <c r="E35" s="12"/>
+      <c r="F35" s="24">
+        <v>94005</v>
+      </c>
+      <c r="G35" s="24">
+        <v>16729</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" s="7" customFormat="1">
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="27">
+        <v>3982348</v>
+      </c>
+      <c r="C37" s="27">
+        <v>1188394</v>
+      </c>
+      <c r="D37" s="27">
+        <v>11201</v>
+      </c>
+      <c r="E37" s="12"/>
+      <c r="F37" s="24">
+        <v>1022893</v>
+      </c>
+      <c r="G37" s="24">
+        <v>467263</v>
+      </c>
+      <c r="H37" s="24">
+        <v>7776</v>
+      </c>
+      <c r="J37" s="6">
+        <f>B8+B21+B32 +B34+B35-B37</f>
+        <v>0</v>
+      </c>
+      <c r="K37" s="6">
+        <f>C8+C21+C32 +C34+C35-C37</f>
+        <v>0</v>
+      </c>
+      <c r="L37" s="6">
+        <f>D8+D21+D32 +D34+D35-D37</f>
+        <v>0</v>
+      </c>
+      <c r="N37" s="6">
+        <f>F8+F21+F32 +F34+F35-F37</f>
+        <v>0</v>
+      </c>
+      <c r="O37" s="6">
+        <f>G8+G21+G32 +G34+G35-G37</f>
+        <v>0</v>
+      </c>
+      <c r="P37" s="6">
+        <f>H8+H21+H32 +H34+H35-H37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="B38" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
